--- a/Movement.xlsx
+++ b/Movement.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Constant to Zero" sheetId="2" r:id="rId2"/>
+    <sheet name="Constant To Constant" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>Time Taken</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Distance Traveled (m)</t>
   </si>
@@ -40,9 +38,6 @@
   </si>
   <si>
     <t>Zanneio Movment Data</t>
-  </si>
-  <si>
-    <t>Our Movment Data</t>
   </si>
   <si>
     <t>Movement Testing: Constant --&gt; Zero</t>
@@ -65,13 +60,42 @@
   <si>
     <t>Effectiveness = Fuel/Distance + Time/Distance. --&gt; Smaller values = Better</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>It seems like there is a minimum time required to travel a specific distance. This probably means the satellite using maximum acceleration. This also means we want to be near the minimum time, while conserving the maximum fuel</t>
+  </si>
+  <si>
+    <t>Min time of 1.13 m seems around 25 seconds</t>
+  </si>
+  <si>
+    <t>api.setVelocityTarget to a vector with length [Velocity Constant 1] in the direction of the target, then after (velocity magnitude)/(distanceToTarg) &gt; [Slow Down Constant], api.setVelocityTarget to a vector with length [Velocity Constant 2] in the direction of the target</t>
+  </si>
+  <si>
+    <t>Velocity Constant 1</t>
+  </si>
+  <si>
+    <t>Velocity Constant 2</t>
+  </si>
+  <si>
+    <t>Movement Testing: Constant --&gt; Constant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -102,24 +126,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -129,11 +143,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -179,17 +241,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:G11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" tableBorderDxfId="7">
-  <autoFilter ref="B5:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:E6" totalsRowShown="0" tableBorderDxfId="10">
+  <autoFilter ref="B3:E6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Distance Traveled (m)"/>
+    <tableColumn id="2" name="Fuel Used (%)"/>
+    <tableColumn id="3" name="Time Taken (s)"/>
+    <tableColumn id="4" name="Effectiveness" dataDxfId="9">
+      <calculatedColumnFormula xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:G16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" tableBorderDxfId="18">
+  <autoFilter ref="B5:G16"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Distance Traveled (m)" dataDxfId="6"/>
+    <tableColumn id="2" name="Distance Traveled (m)" dataDxfId="17"/>
     <tableColumn id="3" name="Fuel Used (%)"/>
-    <tableColumn id="4" name="Time Taken (s)" dataDxfId="5"/>
-    <tableColumn id="5" name="Effectiveness" dataDxfId="0">
+    <tableColumn id="4" name="Time Taken (s)" dataDxfId="16"/>
+    <tableColumn id="5" name="Effectiveness" dataDxfId="11">
       <calculatedColumnFormula xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Velocity Constant" dataDxfId="4"/>
-    <tableColumn id="7" name="Slow Down Constant" dataDxfId="3"/>
+    <tableColumn id="6" name="Velocity Constant" dataDxfId="15"/>
+    <tableColumn id="7" name="Slow Down Constant" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="B5:H16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="B5:H16"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Distance Traveled (m)" dataDxfId="5"/>
+    <tableColumn id="3" name="Fuel Used (%)"/>
+    <tableColumn id="4" name="Time Taken (s)" dataDxfId="4"/>
+    <tableColumn id="5" name="Effectiveness" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Velocity Constant 1" dataDxfId="3"/>
+    <tableColumn id="8" name="Velocity Constant 2" dataDxfId="1"/>
+    <tableColumn id="7" name="Slow Down Constant" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,41 +565,34 @@
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2.5</v>
       </c>
@@ -514,11 +602,14 @@
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1.2</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -526,8 +617,12 @@
       <c r="D5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</f>
+        <v>39.823008849557525</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.52</v>
       </c>
@@ -537,9 +632,16 @@
       <c r="D6">
         <v>16</v>
       </c>
+      <c r="E6">
+        <f xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</f>
+        <v>61.538461538461533</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -547,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +662,7 @@
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="68.33203125" customWidth="1"/>
+    <col min="10" max="10" width="68.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" customWidth="1"/>
@@ -568,485 +670,1074 @@
   <sheetData>
     <row r="4" spans="2:15" ht="50" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>90</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>80</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
         <v>68</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>48</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>37</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
         <v>34</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.1</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>100</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>180</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
         <v>112</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.15</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>40</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>25</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
         <v>57.522123893805315</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.5</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>28</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
         <v>45.13274336283186</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="e">
+      <c r="H10" s="3"/>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
+        <v>55.752212389380531</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
+        <v>47.787610619469035</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="J12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4">
+        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
+        <v>48.67256637168142</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4">
+        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
+        <v>48.672566371681427</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4">
+        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
+        <v>48.672566371681427</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="e">
         <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="68.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>46.902654867256643</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="e">
+        <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K30" s="6"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Movement.xlsx
+++ b/Movement.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Constant to Zero" sheetId="2" r:id="rId2"/>
-    <sheet name="Constant To Constant" sheetId="3" r:id="rId3"/>
+    <sheet name="Constant To Constant" sheetId="3" r:id="rId2"/>
+    <sheet name="Constant to Scaling" sheetId="2" r:id="rId3"/>
+    <sheet name="Stopping Distance - Constant" sheetId="4" r:id="rId4"/>
+    <sheet name="Stopping Distance - Scaling" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+  <si>
+    <t>Distance Traveled</t>
+  </si>
   <si>
     <t>Distance Traveled (m)</t>
   </si>
@@ -40,9 +45,6 @@
     <t>Zanneio Movment Data</t>
   </si>
   <si>
-    <t>Movement Testing: Constant --&gt; Zero</t>
-  </si>
-  <si>
     <t>Velocity Constant</t>
   </si>
   <si>
@@ -50,9 +52,6 @@
   </si>
   <si>
     <t>Time Taken (s)</t>
-  </si>
-  <si>
-    <t>api.setVelocityTarget to a vector with length [Velocity Constant] in the direction of the target, then after (velocity magnitude)/(distanceToTarg) &gt; [Slow Down Constant], api.setVelocityTarget to 0</t>
   </si>
   <si>
     <t>Effectiveness</t>
@@ -80,6 +79,30 @@
   </si>
   <si>
     <t>Movement Testing: Constant --&gt; Constant</t>
+  </si>
+  <si>
+    <t>Initial Velocity</t>
+  </si>
+  <si>
+    <t>Movement Testing: Constant --&gt; Scaling</t>
+  </si>
+  <si>
+    <t>api.setVelocityTarget to a vector with length [Velocity Constant] in the direction of the target, then after (velocity magnitude)/(distanceToTarg) &gt; [Slow Down Constant], api.setVelocityTarget to a vector with magnitude [Velocity Constant 2] * distanceToTarg</t>
+  </si>
+  <si>
+    <t>Movement Testing: Stopping Distance - Constant</t>
+  </si>
+  <si>
+    <t>Movement Testing: Stopping Distance - Scaling</t>
+  </si>
+  <si>
+    <t>Start traveling with some initial velocity, then slow down by setting velocity to a [Velocity Constant] times distToTarg</t>
+  </si>
+  <si>
+    <t>Start traveling with some initial velocity, then slow down by setting velocity to a [Velocity Constant]</t>
+  </si>
+  <si>
+    <t>Effectiveness = Fuel/Vel + Time/Vel. --&gt; Smaller values = Better</t>
   </si>
 </sst>
 </file>
@@ -153,9 +176,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="36">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -241,13 +325,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:E6" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:E6" totalsRowShown="0" tableBorderDxfId="27">
   <autoFilter ref="B3:E6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Distance Traveled (m)"/>
     <tableColumn id="2" name="Fuel Used (%)"/>
     <tableColumn id="3" name="Time Taken (s)"/>
-    <tableColumn id="4" name="Effectiveness" dataDxfId="9">
+    <tableColumn id="4" name="Effectiveness" dataDxfId="26">
       <calculatedColumnFormula xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -256,35 +340,73 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:G16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" tableBorderDxfId="18">
-  <autoFilter ref="B5:G16"/>
-  <tableColumns count="6">
-    <tableColumn id="2" name="Distance Traveled (m)" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="B5:H16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="B5:H16"/>
+  <sortState ref="B6:H16">
+    <sortCondition descending="1" ref="F5:F16"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Distance Traveled (m)" dataDxfId="22"/>
     <tableColumn id="3" name="Fuel Used (%)"/>
-    <tableColumn id="4" name="Time Taken (s)" dataDxfId="16"/>
-    <tableColumn id="5" name="Effectiveness" dataDxfId="11">
-      <calculatedColumnFormula xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
+    <tableColumn id="4" name="Time Taken (s)" dataDxfId="21"/>
+    <tableColumn id="5" name="Effectiveness" dataDxfId="9">
+      <calculatedColumnFormula xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Velocity Constant" dataDxfId="15"/>
-    <tableColumn id="7" name="Slow Down Constant" dataDxfId="14"/>
+    <tableColumn id="6" name="Velocity Constant 1" dataDxfId="20"/>
+    <tableColumn id="8" name="Velocity Constant 2" dataDxfId="18"/>
+    <tableColumn id="7" name="Slow Down Constant" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="B5:H16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:H16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30" tableBorderDxfId="35">
   <autoFilter ref="B5:H16"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Distance Traveled (m)" dataDxfId="5"/>
+    <tableColumn id="2" name="Distance Traveled (m)" dataDxfId="34"/>
     <tableColumn id="3" name="Fuel Used (%)"/>
-    <tableColumn id="4" name="Time Taken (s)" dataDxfId="4"/>
-    <tableColumn id="5" name="Effectiveness" dataDxfId="0">
-      <calculatedColumnFormula xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
+    <tableColumn id="4" name="Time Taken (s)" dataDxfId="33"/>
+    <tableColumn id="5" name="Effectiveness" dataDxfId="28">
+      <calculatedColumnFormula xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Velocity Constant 1" dataDxfId="3"/>
-    <tableColumn id="8" name="Velocity Constant 2" dataDxfId="1"/>
-    <tableColumn id="7" name="Slow Down Constant" dataDxfId="2"/>
+    <tableColumn id="6" name="Velocity Constant" dataDxfId="32"/>
+    <tableColumn id="8" name="Velocity Constant 2" dataDxfId="0"/>
+    <tableColumn id="7" name="Slow Down Constant" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table367" displayName="Table367" ref="B5:G11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B5:G11"/>
+  <tableColumns count="6">
+    <tableColumn id="2" name="Initial Velocity" dataDxfId="14"/>
+    <tableColumn id="9" name="Distance Traveled" dataDxfId="10"/>
+    <tableColumn id="3" name="Fuel Used (%)"/>
+    <tableColumn id="4" name="Time Taken (s)" dataDxfId="13"/>
+    <tableColumn id="5" name="Effectiveness" dataDxfId="12">
+      <calculatedColumnFormula xml:space="preserve"> (Table367[[#This Row],[Time Taken (s)]]+Table367[[#This Row],[Fuel Used (%)]])/Table367[[#This Row],[Initial Velocity]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Velocity Constant" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table3678" displayName="Table3678" ref="B5:G11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="B5:G11"/>
+  <tableColumns count="6">
+    <tableColumn id="2" name="Initial Velocity" dataDxfId="5"/>
+    <tableColumn id="9" name="Distance Traveled" dataDxfId="4"/>
+    <tableColumn id="3" name="Fuel Used (%)"/>
+    <tableColumn id="4" name="Time Taken (s)" dataDxfId="3"/>
+    <tableColumn id="5" name="Effectiveness" dataDxfId="2">
+      <calculatedColumnFormula xml:space="preserve"> (Table3678[[#This Row],[Time Taken (s)]]+Table3678[[#This Row],[Fuel Used (%)]])/Table3678[[#This Row],[Initial Velocity]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Velocity Constant" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,7 +678,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,38 +695,38 @@
   <sheetData>
     <row r="2" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>2.5</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>25</v>
+        <v>24.69</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <f xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</f>
-        <v>30</v>
+        <v>36.985567010309282</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -612,14 +734,14 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>26.9</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <f xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</f>
-        <v>39.823008849557525</v>
+        <v>66.283185840707972</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -627,14 +749,14 @@
         <v>0.52</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>16.95</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <f xml:space="preserve"> Table4[[#This Row],[Fuel Used (%)]]/Table4[[#This Row],[Distance Traveled (m)]] + Table4[[#This Row],[Time Taken (s)]]/Table4[[#This Row],[Distance Traveled (m)]]</f>
-        <v>61.538461538461533</v>
+        <v>111.44230769230768</v>
       </c>
     </row>
   </sheetData>
@@ -647,594 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="68.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:15" ht="50" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3">
-        <v>80</v>
-      </c>
-      <c r="E6" s="3">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>68</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="J6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>34</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
-        <v>180</v>
-      </c>
-      <c r="E8" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>112</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C9" s="3">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>57.522123893805315</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C10" s="3">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>45.13274336283186</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>55.752212389380531</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C12" s="3">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>47.787610619469035</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>48.67256637168142</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>48.672566371681427</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C15" s="3">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>48.672566371681427</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="e">
-        <f xml:space="preserve"> Table3[[#This Row],[Fuel Used (%)]]/Table3[[#This Row],[Distance Traveled (m)]] + Table3[[#This Row],[Time Taken (s)]]/Table3[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J30" s="6"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J31" s="6"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,31 +792,31 @@
   <sheetData>
     <row r="4" spans="2:16" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>5</v>
@@ -1293,17 +831,17 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>33</v>
+        <v>38.4</v>
       </c>
       <c r="D6" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>46.902654867256643</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="F6" s="3">
         <v>0.7</v>
@@ -1311,10 +849,12 @@
       <c r="G6" s="3">
         <v>0.2</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="K6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1323,16 +863,28 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="e">
+      <c r="B7" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>61.375000000000007</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="K7" s="6"/>
       <c r="L7" s="3"/>
@@ -1342,16 +894,28 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="e">
+      <c r="B8" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="C8" s="3">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>54.771784232365142</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.15</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="K8" s="6"/>
       <c r="L8" s="3"/>
@@ -1361,16 +925,28 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="e">
+      <c r="B9" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>67.678571428571416</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3"/>
@@ -1380,19 +956,31 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="e">
+      <c r="B10" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D10" s="3">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>61.238938053097357</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1401,19 +989,31 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="e">
+      <c r="B11" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>50.695652173913047</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.16</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="K11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1422,16 +1022,28 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="e">
+      <c r="B12" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>46.846846846846844</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.17</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="K12" s="6"/>
       <c r="L12" s="3"/>
@@ -1441,16 +1053,28 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="e">
+      <c r="B13" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
         <f xml:space="preserve"> (Table36[[#This Row],[Time Taken (s)]]+Table36[[#This Row],[Fuel Used (%)]])/Table36[[#This Row],[Distance Traveled (m)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>43.783783783783782</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="K13" s="6"/>
       <c r="L13" s="3"/>
@@ -1745,4 +1369,1262 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="68.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K30" s="6"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K31" s="6"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="68.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:15" ht="34" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="e">
+        <f xml:space="preserve"> (Table367[[#This Row],[Time Taken (s)]]+Table367[[#This Row],[Fuel Used (%)]])/Table367[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="e">
+        <f xml:space="preserve"> (Table367[[#This Row],[Time Taken (s)]]+Table367[[#This Row],[Fuel Used (%)]])/Table367[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="e">
+        <f xml:space="preserve"> (Table367[[#This Row],[Time Taken (s)]]+Table367[[#This Row],[Fuel Used (%)]])/Table367[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="e">
+        <f xml:space="preserve"> (Table367[[#This Row],[Time Taken (s)]]+Table367[[#This Row],[Fuel Used (%)]])/Table367[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="e">
+        <f xml:space="preserve"> (Table367[[#This Row],[Time Taken (s)]]+Table367[[#This Row],[Fuel Used (%)]])/Table367[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="e">
+        <f xml:space="preserve"> (Table367[[#This Row],[Time Taken (s)]]+Table367[[#This Row],[Fuel Used (%)]])/Table367[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="68.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:15" ht="34" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="e">
+        <f xml:space="preserve"> (Table3678[[#This Row],[Time Taken (s)]]+Table3678[[#This Row],[Fuel Used (%)]])/Table3678[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="e">
+        <f xml:space="preserve"> (Table3678[[#This Row],[Time Taken (s)]]+Table3678[[#This Row],[Fuel Used (%)]])/Table3678[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="e">
+        <f xml:space="preserve"> (Table3678[[#This Row],[Time Taken (s)]]+Table3678[[#This Row],[Fuel Used (%)]])/Table3678[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="e">
+        <f xml:space="preserve"> (Table3678[[#This Row],[Time Taken (s)]]+Table3678[[#This Row],[Fuel Used (%)]])/Table3678[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="e">
+        <f xml:space="preserve"> (Table3678[[#This Row],[Time Taken (s)]]+Table3678[[#This Row],[Fuel Used (%)]])/Table3678[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="e">
+        <f xml:space="preserve"> (Table3678[[#This Row],[Time Taken (s)]]+Table3678[[#This Row],[Fuel Used (%)]])/Table3678[[#This Row],[Initial Velocity]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>